--- a/newBill.xlsx
+++ b/newBill.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -628,7 +628,7 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -743,6 +743,18 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,10 +764,31 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -765,27 +798,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -794,23 +806,14 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -884,16 +887,16 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>5</col>
-      <colOff>0</colOff>
+      <col>4</col>
+      <colOff>685801</colOff>
       <row>0</row>
-      <rowOff>19050</rowOff>
+      <rowOff>0</rowOff>
     </from>
     <to>
       <col>6</col>
-      <colOff>19050</colOff>
-      <row>4</row>
-      <rowOff>16758</rowOff>
+      <colOff>26869</colOff>
+      <row>5</row>
+      <rowOff>107315</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -910,8 +913,8 @@
       </blipFill>
       <spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5591175" y="19050"/>
-          <a:ext cx="1076325" cy="959733"/>
+          <a:off x="5219701" y="0"/>
+          <a:ext cx="1455618" cy="1297940"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
@@ -1197,7 +1200,7 @@
   <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1210,12 +1213,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.95" customFormat="1" customHeight="1" s="12">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="41" t="inlineStr">
         <is>
           <t>Computer City India</t>
         </is>
       </c>
-      <c r="D1" s="57" t="n"/>
+      <c r="D1" s="42" t="n"/>
     </row>
     <row r="2" ht="18" customFormat="1" customHeight="1" s="4">
       <c r="B2" s="24" t="inlineStr">
@@ -1243,9 +1246,9 @@
     </row>
     <row r="5" ht="18" customFormat="1" customHeight="1" s="4">
       <c r="B5" s="24" t="n"/>
-      <c r="C5" s="62" t="inlineStr">
-        <is>
-          <t>WORK ORDER</t>
+      <c r="C5" s="43" t="inlineStr">
+        <is>
+          <t>JOB ORDER</t>
         </is>
       </c>
       <c r="E5" s="26" t="n"/>
@@ -1264,20 +1267,20 @@
           <t>CLIENT NAME</t>
         </is>
       </c>
-      <c r="C7" s="61" t="inlineStr">
+      <c r="C7" s="40" t="inlineStr">
         <is>
           <t>New</t>
         </is>
       </c>
-      <c r="D7" s="64" t="n"/>
+      <c r="D7" s="65" t="n"/>
       <c r="E7" s="27" t="inlineStr">
         <is>
-          <t>ORDER DATE</t>
+          <t>JOB DATE</t>
         </is>
       </c>
       <c r="F7" s="29" t="inlineStr">
         <is>
-          <t>ORDER NUMBER</t>
+          <t>JOB NUMBER</t>
         </is>
       </c>
     </row>
@@ -1287,15 +1290,17 @@
           <t>CLIENT PHONE</t>
         </is>
       </c>
-      <c r="C8" s="61" t="inlineStr"/>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="65" t="inlineStr">
+      <c r="C8" s="40" t="inlineStr"/>
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="66" t="inlineStr">
         <is>
           <t>18/03/1999</t>
         </is>
       </c>
-      <c r="F8" s="31" t="n">
-        <v>0</v>
+      <c r="F8" s="31" t="inlineStr">
+        <is>
+          <t>AKS-0</t>
+        </is>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1">
@@ -1304,8 +1309,8 @@
           <t>CLIENT EMAIL</t>
         </is>
       </c>
-      <c r="C9" s="61" t="inlineStr"/>
-      <c r="D9" s="64" t="n"/>
+      <c r="C9" s="40" t="inlineStr"/>
+      <c r="D9" s="65" t="n"/>
       <c r="E9" s="39" t="n"/>
       <c r="F9" s="39" t="n"/>
     </row>
@@ -1315,14 +1320,14 @@
           <t>ITEM RECD.</t>
         </is>
       </c>
-      <c r="C10" s="61" t="inlineStr">
+      <c r="C10" s="40" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="D10" s="64" t="n"/>
-      <c r="E10" s="65" t="n"/>
-      <c r="F10" s="65" t="n"/>
+      <c r="D10" s="65" t="n"/>
+      <c r="E10" s="66" t="n"/>
+      <c r="F10" s="66" t="n"/>
     </row>
     <row r="11" ht="21.95" customHeight="1" thickBot="1">
       <c r="B11" s="14" t="inlineStr">
@@ -1330,14 +1335,14 @@
           <t>MODEL NO</t>
         </is>
       </c>
-      <c r="C11" s="66" t="inlineStr">
+      <c r="C11" s="67" t="inlineStr">
         <is>
           <t>9000</t>
         </is>
       </c>
-      <c r="D11" s="67" t="n"/>
-      <c r="E11" s="67" t="n"/>
-      <c r="F11" s="68" t="n"/>
+      <c r="D11" s="68" t="n"/>
+      <c r="E11" s="68" t="n"/>
+      <c r="F11" s="69" t="n"/>
     </row>
     <row r="12" ht="6.95" customHeight="1">
       <c r="B12" s="3" t="n"/>
@@ -1352,14 +1357,14 @@
           <t>PROBLEM REPORTED</t>
         </is>
       </c>
-      <c r="C13" s="69" t="inlineStr">
+      <c r="C13" s="70" t="inlineStr">
         <is>
           <t>No Problem</t>
         </is>
       </c>
-      <c r="D13" s="70" t="n"/>
-      <c r="E13" s="70" t="n"/>
-      <c r="F13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
+      <c r="E13" s="71" t="n"/>
+      <c r="F13" s="72" t="n"/>
     </row>
     <row r="14" ht="50.1" customHeight="1" thickBot="1">
       <c r="B14" s="16" t="inlineStr">
@@ -1367,10 +1372,10 @@
           <t>PROBLEM DIAGNOSED</t>
         </is>
       </c>
-      <c r="C14" s="72" t="inlineStr"/>
-      <c r="D14" s="73" t="n"/>
-      <c r="E14" s="73" t="n"/>
-      <c r="F14" s="74" t="n"/>
+      <c r="C14" s="73" t="inlineStr"/>
+      <c r="D14" s="74" t="n"/>
+      <c r="E14" s="74" t="n"/>
+      <c r="F14" s="75" t="n"/>
     </row>
     <row r="15" ht="30" customHeight="1" thickTop="1">
       <c r="B15" s="17" t="inlineStr">
@@ -1378,25 +1383,29 @@
           <t>ADDITIONAL COMMENTS</t>
         </is>
       </c>
-      <c r="C15" s="75" t="inlineStr"/>
-      <c r="D15" s="76" t="n"/>
-      <c r="E15" s="76" t="n"/>
-      <c r="F15" s="77" t="n"/>
-    </row>
-    <row r="16" ht="6.95" customHeight="1">
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
+      <c r="C15" s="76" t="inlineStr"/>
+      <c r="D15" s="77" t="n"/>
+      <c r="E15" s="77" t="n"/>
+      <c r="F15" s="78" t="n"/>
+    </row>
+    <row r="16" ht="27.75" customHeight="1">
+      <c r="B16" s="63" t="inlineStr">
+        <is>
+          <t>Minimum charges for the repair are: 200</t>
+        </is>
+      </c>
+      <c r="C16" s="79" t="n"/>
+      <c r="D16" s="79" t="n"/>
+      <c r="E16" s="79" t="n"/>
+      <c r="F16" s="79" t="n"/>
     </row>
     <row r="17" ht="18" customFormat="1" customHeight="1" s="2">
-      <c r="B17" s="55" t="inlineStr">
+      <c r="B17" s="59" t="inlineStr">
         <is>
           <t>LABOR DESCRIPTION</t>
         </is>
       </c>
-      <c r="C17" s="78" t="n"/>
+      <c r="C17" s="79" t="n"/>
       <c r="D17" s="18" t="inlineStr">
         <is>
           <t>ITEM</t>
@@ -1414,57 +1423,57 @@
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1">
-      <c r="B18" s="43" t="n"/>
-      <c r="C18" s="78" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="79" t="n"/>
       <c r="D18" s="5" t="n"/>
-      <c r="E18" s="79" t="n"/>
-      <c r="F18" s="80" t="n"/>
+      <c r="E18" s="80" t="n"/>
+      <c r="F18" s="81" t="n"/>
     </row>
     <row r="19" ht="20.1" customHeight="1">
-      <c r="B19" s="43" t="n"/>
-      <c r="C19" s="78" t="n"/>
+      <c r="B19" s="61" t="n"/>
+      <c r="C19" s="79" t="n"/>
       <c r="D19" s="5" t="n"/>
-      <c r="E19" s="79" t="n"/>
-      <c r="F19" s="80" t="n"/>
+      <c r="E19" s="80" t="n"/>
+      <c r="F19" s="81" t="n"/>
     </row>
     <row r="20" ht="20.1" customHeight="1">
-      <c r="B20" s="43" t="n"/>
-      <c r="C20" s="78" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="79" t="n"/>
       <c r="D20" s="5" t="n"/>
-      <c r="E20" s="79" t="n"/>
-      <c r="F20" s="80" t="n"/>
+      <c r="E20" s="80" t="n"/>
+      <c r="F20" s="81" t="n"/>
     </row>
     <row r="21" ht="20.1" customHeight="1">
-      <c r="B21" s="43" t="n"/>
-      <c r="C21" s="78" t="n"/>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="79" t="n"/>
       <c r="D21" s="5" t="n"/>
-      <c r="E21" s="79" t="n"/>
-      <c r="F21" s="80" t="n"/>
+      <c r="E21" s="80" t="n"/>
+      <c r="F21" s="81" t="n"/>
     </row>
     <row r="22" ht="20.1" customHeight="1">
-      <c r="B22" s="43" t="n"/>
-      <c r="C22" s="78" t="n"/>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="79" t="n"/>
       <c r="D22" s="5" t="n"/>
-      <c r="E22" s="79" t="n"/>
-      <c r="F22" s="80" t="n"/>
+      <c r="E22" s="80" t="n"/>
+      <c r="F22" s="81" t="n"/>
     </row>
     <row r="23" ht="20.1" customHeight="1">
-      <c r="B23" s="43" t="n"/>
-      <c r="C23" s="78" t="n"/>
+      <c r="B23" s="61" t="n"/>
+      <c r="C23" s="79" t="n"/>
       <c r="D23" s="5" t="n"/>
-      <c r="E23" s="79" t="n"/>
-      <c r="F23" s="80" t="n"/>
+      <c r="E23" s="80" t="n"/>
+      <c r="F23" s="81" t="n"/>
     </row>
     <row r="24" ht="20.1" customFormat="1" customHeight="1" s="2">
-      <c r="B24" s="81" t="n"/>
-      <c r="C24" s="78" t="n"/>
-      <c r="D24" s="64" t="n"/>
+      <c r="B24" s="82" t="n"/>
+      <c r="C24" s="79" t="n"/>
+      <c r="D24" s="65" t="n"/>
       <c r="E24" s="18" t="inlineStr">
         <is>
           <t>LABOR TOTAL</t>
         </is>
       </c>
-      <c r="F24" s="80" t="n"/>
+      <c r="F24" s="81" t="n"/>
     </row>
     <row r="25" ht="6.95" customHeight="1">
       <c r="B25" s="3" t="n"/>
@@ -1474,12 +1483,12 @@
       <c r="F25" s="3" t="n"/>
     </row>
     <row r="26" ht="18" customFormat="1" customHeight="1" s="2">
-      <c r="B26" s="55" t="inlineStr">
+      <c r="B26" s="59" t="inlineStr">
         <is>
           <t>MATERIAL DESCRIPTION</t>
         </is>
       </c>
-      <c r="C26" s="78" t="n"/>
+      <c r="C26" s="79" t="n"/>
       <c r="D26" s="18" t="inlineStr">
         <is>
           <t>QUANTITY</t>
@@ -1497,57 +1506,57 @@
       </c>
     </row>
     <row r="27" ht="20.1" customHeight="1">
-      <c r="B27" s="43" t="n"/>
-      <c r="C27" s="78" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="79" t="n"/>
       <c r="D27" s="5" t="n"/>
-      <c r="E27" s="79" t="n"/>
-      <c r="F27" s="80" t="n"/>
+      <c r="E27" s="80" t="n"/>
+      <c r="F27" s="81" t="n"/>
     </row>
     <row r="28" ht="20.1" customHeight="1">
-      <c r="B28" s="43" t="n"/>
-      <c r="C28" s="78" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="79" t="n"/>
       <c r="D28" s="5" t="n"/>
-      <c r="E28" s="79" t="n"/>
-      <c r="F28" s="80" t="n"/>
+      <c r="E28" s="80" t="n"/>
+      <c r="F28" s="81" t="n"/>
     </row>
     <row r="29" ht="20.1" customHeight="1">
-      <c r="B29" s="43" t="n"/>
-      <c r="C29" s="78" t="n"/>
+      <c r="B29" s="61" t="n"/>
+      <c r="C29" s="79" t="n"/>
       <c r="D29" s="5" t="n"/>
-      <c r="E29" s="79" t="n"/>
-      <c r="F29" s="80" t="n"/>
+      <c r="E29" s="80" t="n"/>
+      <c r="F29" s="81" t="n"/>
     </row>
     <row r="30" ht="20.1" customHeight="1">
-      <c r="B30" s="43" t="n"/>
-      <c r="C30" s="78" t="n"/>
+      <c r="B30" s="61" t="n"/>
+      <c r="C30" s="79" t="n"/>
       <c r="D30" s="5" t="n"/>
-      <c r="E30" s="79" t="n"/>
-      <c r="F30" s="80" t="n"/>
+      <c r="E30" s="80" t="n"/>
+      <c r="F30" s="81" t="n"/>
     </row>
     <row r="31" ht="20.1" customHeight="1">
-      <c r="B31" s="43" t="n"/>
-      <c r="C31" s="78" t="n"/>
+      <c r="B31" s="61" t="n"/>
+      <c r="C31" s="79" t="n"/>
       <c r="D31" s="5" t="n"/>
-      <c r="E31" s="79" t="n"/>
-      <c r="F31" s="80" t="n"/>
+      <c r="E31" s="80" t="n"/>
+      <c r="F31" s="81" t="n"/>
     </row>
     <row r="32" ht="20.1" customHeight="1">
-      <c r="B32" s="43" t="n"/>
-      <c r="C32" s="78" t="n"/>
+      <c r="B32" s="61" t="n"/>
+      <c r="C32" s="79" t="n"/>
       <c r="D32" s="5" t="n"/>
-      <c r="E32" s="79" t="n"/>
-      <c r="F32" s="80" t="n"/>
+      <c r="E32" s="80" t="n"/>
+      <c r="F32" s="81" t="n"/>
     </row>
     <row r="33" ht="20.1" customFormat="1" customHeight="1" s="2">
-      <c r="B33" s="81" t="n"/>
-      <c r="C33" s="78" t="n"/>
-      <c r="D33" s="64" t="n"/>
+      <c r="B33" s="82" t="n"/>
+      <c r="C33" s="79" t="n"/>
+      <c r="D33" s="65" t="n"/>
       <c r="E33" s="18" t="inlineStr">
         <is>
           <t>MATERIAL TOTAL</t>
         </is>
       </c>
-      <c r="F33" s="80" t="n"/>
+      <c r="F33" s="81" t="n"/>
     </row>
     <row r="34" ht="6.95" customHeight="1">
       <c r="B34" s="3" t="n"/>
@@ -1562,13 +1571,13 @@
           <t>WORK ORDER COMPILED BY</t>
         </is>
       </c>
-      <c r="C35" s="61" t="n"/>
+      <c r="C35" s="40" t="n"/>
       <c r="E35" s="33" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="F35" s="82" t="n"/>
+      <c r="F35" s="83" t="n"/>
     </row>
     <row r="36" ht="26.1" customHeight="1">
       <c r="B36" s="1" t="n"/>
@@ -1583,7 +1592,7 @@
           <t>TAX RATE %</t>
         </is>
       </c>
-      <c r="F36" s="83" t="n"/>
+      <c r="F36" s="84" t="n"/>
     </row>
     <row r="37" ht="26.1" customHeight="1">
       <c r="B37" s="13" t="inlineStr">
@@ -1591,14 +1600,14 @@
           <t>APPROVING PARTY NAME AND TITLE</t>
         </is>
       </c>
-      <c r="C37" s="61" t="n"/>
+      <c r="C37" s="40" t="n"/>
       <c r="D37" s="8" t="n"/>
       <c r="E37" s="35" t="inlineStr">
         <is>
           <t>TOTAL TAX</t>
         </is>
       </c>
-      <c r="F37" s="84" t="n"/>
+      <c r="F37" s="85" t="n"/>
     </row>
     <row r="38" ht="26.1" customHeight="1" thickBot="1">
       <c r="B38" s="13" t="inlineStr">
@@ -1606,7 +1615,7 @@
           <t>APPROVING PARTY SIGNATURE</t>
         </is>
       </c>
-      <c r="C38" s="61" t="n"/>
+      <c r="C38" s="40" t="n"/>
       <c r="D38" s="7" t="inlineStr">
         <is>
           <t>enter other cost</t>
@@ -1617,7 +1626,7 @@
           <t>OTHER</t>
         </is>
       </c>
-      <c r="F38" s="85" t="n"/>
+      <c r="F38" s="86" t="n"/>
     </row>
     <row r="39" ht="26.1" customHeight="1">
       <c r="B39" s="13" t="inlineStr">
@@ -1625,16 +1634,16 @@
           <t>DATE OF APPROVAL</t>
         </is>
       </c>
-      <c r="C39" s="86" t="n"/>
+      <c r="C39" s="87" t="n"/>
       <c r="E39" s="37" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F39" s="87" t="n"/>
+      <c r="F39" s="88" t="n"/>
     </row>
     <row r="40" ht="48.75" customHeight="1">
-      <c r="B40" s="63" t="inlineStr">
+      <c r="B40" s="64" t="inlineStr">
         <is>
           <t>Customer Remarks :- I have checked the system/Item and found the system/Item in good and working condition at the time of Delivery.</t>
         </is>
@@ -1658,7 +1667,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:D33"/>
@@ -1680,6 +1689,7 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F4"/>

--- a/newBill.xlsx
+++ b/newBill.xlsx
@@ -1281,16 +1281,20 @@
           <t>CLIENT PHONE</t>
         </is>
       </c>
-      <c r="C8" s="60" t="inlineStr"/>
+      <c r="C8" s="60" t="inlineStr">
+        <is>
+          <t>9999999999</t>
+        </is>
+      </c>
       <c r="D8" s="46" t="n"/>
       <c r="E8" s="20" t="inlineStr">
         <is>
-          <t>05/08/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="F8" s="23" t="inlineStr">
         <is>
-          <t>AKS-2</t>
+          <t>ANJ-3</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1304,11 @@
           <t>CLIENT EMAIL</t>
         </is>
       </c>
-      <c r="C9" s="60" t="inlineStr"/>
+      <c r="C9" s="60" t="inlineStr">
+        <is>
+          <t>usingla7@gdfhcjs.com</t>
+        </is>
+      </c>
       <c r="D9" s="46" t="n"/>
       <c r="E9" s="30" t="inlineStr">
         <is>
@@ -1321,13 +1329,13 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Dont Know</t>
+          <t>yesss</t>
         </is>
       </c>
       <c r="D10" s="46" t="n"/>
       <c r="E10" s="40" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F10" s="40" t="n">
@@ -1342,7 +1350,7 @@
       </c>
       <c r="C11" s="58" t="inlineStr">
         <is>
-          <t>Idk</t>
+          <t>278290e</t>
         </is>
       </c>
       <c r="D11" s="68" t="n"/>
@@ -1372,7 +1380,7 @@
       </c>
       <c r="C13" s="49" t="inlineStr">
         <is>
-          <t>some problem should be there</t>
+          <t>nooo</t>
         </is>
       </c>
       <c r="D13" s="50" t="n"/>
@@ -1385,7 +1393,11 @@
           <t>PROBLEM DIAGNOSED</t>
         </is>
       </c>
-      <c r="C14" s="52" t="inlineStr"/>
+      <c r="C14" s="52" t="inlineStr">
+        <is>
+          <t>u3iewd</t>
+        </is>
+      </c>
       <c r="D14" s="53" t="n"/>
       <c r="E14" s="53" t="n"/>
       <c r="F14" s="54" t="n"/>
@@ -1396,7 +1408,11 @@
           <t>ADDITIONAL COMMENTS</t>
         </is>
       </c>
-      <c r="C15" s="55" t="inlineStr"/>
+      <c r="C15" s="55" t="inlineStr">
+        <is>
+          <t>34uwei</t>
+        </is>
+      </c>
       <c r="D15" s="56" t="n"/>
       <c r="E15" s="56" t="n"/>
       <c r="F15" s="57" t="n"/>
@@ -1404,7 +1420,7 @@
     <row r="16" ht="18" customHeight="1" s="43">
       <c r="B16" s="66" t="inlineStr">
         <is>
-          <t>We are not Responsible for any data losses. Minimum diagnostic charges are: 2000</t>
+          <t>We are not Responsible for any data losses. Minimum diagnostic charges are: 200</t>
         </is>
       </c>
       <c r="C16" s="45" t="n"/>

--- a/newBill.xlsx
+++ b/newBill.xlsx
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Utsav</t>
+          <t>Utsav Singla</t>
         </is>
       </c>
       <c r="D7" s="46" t="n"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>9999999999</t>
+          <t>9034411000</t>
         </is>
       </c>
       <c r="D8" s="46" t="n"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F8" s="23" t="inlineStr">
         <is>
-          <t>ANJ-3</t>
+          <t>ANJ-4</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>usingla7@gdfhcjs.com</t>
+          <t>usingla78@Gmail.com</t>
         </is>
       </c>
       <c r="D9" s="46" t="n"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>yesss</t>
+          <t>Acer Nitro 5</t>
         </is>
       </c>
       <c r="D10" s="46" t="n"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C11" s="58" t="inlineStr">
         <is>
-          <t>278290e</t>
+          <t>nitro 5 512-N</t>
         </is>
       </c>
       <c r="D11" s="68" t="n"/>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C13" s="49" t="inlineStr">
         <is>
-          <t>nooo</t>
+          <t>Screen ke hinge gaye</t>
         </is>
       </c>
       <c r="D13" s="50" t="n"/>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C14" s="52" t="inlineStr">
         <is>
-          <t>u3iewd</t>
+          <t>same as above</t>
         </is>
       </c>
       <c r="D14" s="53" t="n"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C15" s="55" t="inlineStr">
         <is>
-          <t>34uwei</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D15" s="56" t="n"/>

--- a/newBill.xlsx
+++ b/newBill.xlsx
@@ -1289,12 +1289,12 @@
       <c r="D8" s="46" t="n"/>
       <c r="E8" s="20" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>03/09/2020</t>
         </is>
       </c>
       <c r="F8" s="23" t="inlineStr">
         <is>
-          <t>ANJ-4</t>
+          <t>ANJ-55</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>usingla78@Gmail.com</t>
+          <t>usingla78@gmail.com</t>
         </is>
       </c>
       <c r="D9" s="46" t="n"/>
@@ -1329,13 +1329,13 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Acer Nitro 5</t>
+          <t>acer</t>
         </is>
       </c>
       <c r="D10" s="46" t="n"/>
       <c r="E10" s="40" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>300</t>
         </is>
       </c>
       <c r="F10" s="40" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C11" s="58" t="inlineStr">
         <is>
-          <t>nitro 5 512-N</t>
+          <t>9020392</t>
         </is>
       </c>
       <c r="D11" s="68" t="n"/>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C13" s="49" t="inlineStr">
         <is>
-          <t>Screen ke hinge gaye</t>
+          <t>ujekwd</t>
         </is>
       </c>
       <c r="D13" s="50" t="n"/>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C14" s="52" t="inlineStr">
         <is>
-          <t>same as above</t>
+          <t>eiwncds ewdhcsjn ewdhusci</t>
         </is>
       </c>
       <c r="D14" s="53" t="n"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C15" s="55" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D15" s="56" t="n"/>
@@ -1420,7 +1420,7 @@
     <row r="16" ht="18" customHeight="1" s="43">
       <c r="B16" s="66" t="inlineStr">
         <is>
-          <t>We are not Responsible for any data losses. Minimum diagnostic charges are: 200</t>
+          <t>We are not Responsible for any data losses. Minimum diagnostic charges are: 300</t>
         </is>
       </c>
       <c r="C16" s="45" t="n"/>
